--- a/m1/u1/ejercicios/20191107/EjExcAva-Pra2.xlsx
+++ b/m1/u1/ejercicios/20191107/EjExcAva-Pra2.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="empleados" sheetId="4" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">empleados!$A$3:$AG$32</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
@@ -214,8 +217,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="171" formatCode="#,##0\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -271,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -292,14 +296,17 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,7 +614,7 @@
   <dimension ref="A1:AG38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -697,7 +704,7 @@
       <c r="O3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="10" t="s">
         <v>60</v>
       </c>
       <c r="Q3" s="6" t="s">
@@ -737,15 +744,46 @@
       <c r="H4" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="12">
         <f t="array" ref="I4">IF(E4:E32="jornalero",F4:F32*T$1,G4:G32*T$2)</f>
         <v>6900</v>
       </c>
       <c r="J4" s="8">
-        <f>IF(OR(H4:H32="Chofer",H4:H32="Azafata"),15%,0)</f>
+        <f>IF(OR($H$4:$H$32="Chofer",$H$4:$H$32="Azafata"),15%,IF(OR($F$4:$F$32&gt;=200,$G$4:$G$32&gt;=20),5%,0%))</f>
         <v>0.15</v>
       </c>
-      <c r="Q4" s="10"/>
+      <c r="K4" s="12">
+        <f>I4*J4+I4</f>
+        <v>7935</v>
+      </c>
+      <c r="L4" s="8">
+        <f>IF($K$4:$K$32&gt;11600,9%,IF(AND($K$4:$K$32&gt;=4640,$K$4:$K$32&lt;=11600),6%,IF($K$4:$K$32&lt;4640,13%,0%)))</f>
+        <v>0.06</v>
+      </c>
+      <c r="M4" s="8">
+        <f>IF($K$4:$K$32&gt;11600,9%,IF(AND($K$4:$K$32&gt;=4640,$K$4:$K$32&lt;=11600),6%,IF($K$4:$K$32&lt;4640,3%,0%)))</f>
+        <v>0.06</v>
+      </c>
+      <c r="N4" s="12">
+        <f>(K4*(L4+M4))</f>
+        <v>952.19999999999993</v>
+      </c>
+      <c r="O4" s="12">
+        <f>K4-(K4*(L4+M4))</f>
+        <v>6982.8</v>
+      </c>
+      <c r="P4" s="13">
+        <f ca="1">IF(AND($D$4:$D$32&lt;&gt;"Cordon",$D$4:$D$32&lt;&gt;"Centro",$Q$4:$Q$32&gt;40),200,IF(AND(OR($D$4:$D$32="Cordon",$D$4:$D$32="Centro"),$Q$4:$Q$32&gt;40),150,IF(AND($D$4:$D$32&lt;&gt;"Cordon",$D$4:$D$32&lt;&gt;"Centro",$Q$4:$Q$32&lt;40),100,0)))</f>
+        <v>150</v>
+      </c>
+      <c r="Q4" s="14">
+        <f ca="1">YEAR(TODAY())-YEAR(C4)</f>
+        <v>63</v>
+      </c>
+      <c r="R4">
+        <f>IF($O$4:$O$32&gt;10000,0,IF(AND($O$4:$O$32&lt;=10000,$O$4:$O$32&gt;=5000,E4:E32="Jornalero"),200,IF(AND($O$4:$O$32&lt;=10000,$O$4:$O$32&gt;=5000,E4:E32="Efectivo"),100,IF($O$4:$O$32&lt;5000,300))))</f>
+        <v>200</v>
+      </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -769,15 +807,46 @@
       <c r="H5" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="12">
         <f t="array" ref="I5">IF(E5:E33="jornalero",F5:F33*T$1,G5:G33*T$2)</f>
         <v>5500</v>
       </c>
       <c r="J5" s="8">
-        <f t="shared" ref="J5:J32" si="0">IF(OR(H5:H33="Chofer",H5:H33="Azafata"),15%,0)</f>
+        <f t="shared" ref="J5:J32" si="0">IF(OR($H$4:$H$32="Chofer",$H$4:$H$32="Azafata"),15%,IF(OR($F$4:$F$32&gt;=200,$G$4:$G$32&gt;=20),5%,0%))</f>
         <v>0.15</v>
       </c>
-      <c r="Q5" s="10"/>
+      <c r="K5" s="12">
+        <f t="shared" ref="K5:K32" si="1">I5*J5+I5</f>
+        <v>6325</v>
+      </c>
+      <c r="L5" s="8">
+        <f t="shared" ref="L5:L32" si="2">IF($K$4:$K$32&gt;11600,9%,IF(AND($K$4:$K$32&gt;=4640,$K$4:$K$32&lt;=11600),6%,IF($K$4:$K$32&lt;4640,13%,0%)))</f>
+        <v>0.06</v>
+      </c>
+      <c r="M5" s="8">
+        <f t="shared" ref="M5:M32" si="3">IF($K$4:$K$32&gt;11600,9%,IF(AND($K$4:$K$32&gt;=4640,$K$4:$K$32&lt;=11600),6%,IF($K$4:$K$32&lt;4640,3%,0%)))</f>
+        <v>0.06</v>
+      </c>
+      <c r="N5" s="12">
+        <f t="shared" ref="N5:N32" si="4">(K5*(L5+M5))</f>
+        <v>759</v>
+      </c>
+      <c r="O5" s="12">
+        <f t="shared" ref="O5:O32" si="5">K5-(K5*(L5+M5))</f>
+        <v>5566</v>
+      </c>
+      <c r="P5" s="13">
+        <f t="shared" ref="P5:P32" ca="1" si="6">IF(AND($D$4:$D$32&lt;&gt;"Cordon",$D$4:$D$32&lt;&gt;"Centro",$Q$4:$Q$32&gt;40),200,IF(AND(OR($D$4:$D$32="Cordon",$D$4:$D$32="Centro"),$Q$4:$Q$32&gt;40),150,IF(AND($D$4:$D$32&lt;&gt;"Cordon",$D$4:$D$32&lt;&gt;"Centro",$Q$4:$Q$32&lt;40),100,0)))</f>
+        <v>200</v>
+      </c>
+      <c r="Q5" s="14">
+        <f t="shared" ref="Q5:Q32" ca="1" si="7">YEAR(TODAY())-YEAR(C5)</f>
+        <v>58</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ref="R5:R32" si="8">IF($O$4:$O$32&gt;10000,0,IF(AND($O$4:$O$32&lt;=10000,$O$4:$O$32&gt;=5000,E5:E33="Jornalero"),200,IF(AND($O$4:$O$32&lt;=10000,$O$4:$O$32&gt;=5000,E5:E33="Efectivo"),100,IF($O$4:$O$32&lt;5000,300))))</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -801,15 +870,46 @@
       <c r="H6" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="12">
         <f t="array" ref="I6">IF(E6:E34="jornalero",F6:F34*T$1,G6:G34*T$2)</f>
         <v>5250</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="K6" s="12">
+        <f t="shared" si="1"/>
+        <v>5512.5</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="M6" s="8">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="N6" s="12">
+        <f t="shared" si="4"/>
+        <v>661.5</v>
+      </c>
+      <c r="O6" s="12">
+        <f t="shared" si="5"/>
+        <v>4851</v>
+      </c>
+      <c r="P6" s="13">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="10"/>
+      <c r="Q6" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="8"/>
+        <v>300</v>
+      </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -833,7 +933,7 @@
       <c r="H7" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="12">
         <f t="array" ref="I7">IF(E7:E35="jornalero",F7:F35*T$1,G7:G35*T$2)</f>
         <v>3200</v>
       </c>
@@ -841,7 +941,38 @@
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="Q7" s="10"/>
+      <c r="K7" s="12">
+        <f t="shared" si="1"/>
+        <v>3680</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" si="2"/>
+        <v>0.13</v>
+      </c>
+      <c r="M7" s="8">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="N7" s="12">
+        <f t="shared" si="4"/>
+        <v>588.80000000000007</v>
+      </c>
+      <c r="O7" s="12">
+        <f t="shared" si="5"/>
+        <v>3091.2</v>
+      </c>
+      <c r="P7" s="13">
+        <f t="shared" ca="1" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="Q7" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>54</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="8"/>
+        <v>300</v>
+      </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -865,7 +996,7 @@
       <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="12">
         <f t="array" ref="I8">IF(E8:E36="jornalero",F8:F36*T$1,G8:G36*T$2)</f>
         <v>12250</v>
       </c>
@@ -873,7 +1004,38 @@
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="Q8" s="10"/>
+      <c r="K8" s="12">
+        <f t="shared" si="1"/>
+        <v>14087.5</v>
+      </c>
+      <c r="L8" s="8">
+        <f t="shared" si="2"/>
+        <v>0.09</v>
+      </c>
+      <c r="M8" s="8">
+        <f t="shared" si="3"/>
+        <v>0.09</v>
+      </c>
+      <c r="N8" s="12">
+        <f t="shared" si="4"/>
+        <v>2535.75</v>
+      </c>
+      <c r="O8" s="12">
+        <f t="shared" si="5"/>
+        <v>11551.75</v>
+      </c>
+      <c r="P8" s="13">
+        <f t="shared" ca="1" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="Q8" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>53</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -897,7 +1059,7 @@
       <c r="H9" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="12">
         <f t="array" ref="I9">IF(E9:E37="jornalero",F9:F37*T$1,G9:G37*T$2)</f>
         <v>5500</v>
       </c>
@@ -905,7 +1067,38 @@
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="Q9" s="10"/>
+      <c r="K9" s="12">
+        <f t="shared" si="1"/>
+        <v>6325</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="M9" s="8">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="N9" s="12">
+        <f t="shared" si="4"/>
+        <v>759</v>
+      </c>
+      <c r="O9" s="12">
+        <f t="shared" si="5"/>
+        <v>5566</v>
+      </c>
+      <c r="P9" s="13">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>37</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -929,15 +1122,46 @@
       <c r="H10" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="12">
         <f t="array" ref="I10">IF(E10:E38="jornalero",F10:F38*T$1,G10:G38*T$2)</f>
         <v>5500</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="10"/>
+        <v>0.05</v>
+      </c>
+      <c r="K10" s="12">
+        <f t="shared" si="1"/>
+        <v>5775</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="M10" s="8">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="N10" s="12">
+        <f t="shared" si="4"/>
+        <v>693</v>
+      </c>
+      <c r="O10" s="12">
+        <f t="shared" si="5"/>
+        <v>5082</v>
+      </c>
+      <c r="P10" s="13">
+        <f t="shared" ca="1" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="Q10" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -961,7 +1185,7 @@
       <c r="H11" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="12">
         <f t="array" ref="I11">IF(E11:E39="jornalero",F11:F39*T$1,G11:G39*T$2)</f>
         <v>4500</v>
       </c>
@@ -969,7 +1193,38 @@
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="Q11" s="10"/>
+      <c r="K11" s="12">
+        <f t="shared" si="1"/>
+        <v>5175</v>
+      </c>
+      <c r="L11" s="8">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="M11" s="8">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="N11" s="12">
+        <f t="shared" si="4"/>
+        <v>621</v>
+      </c>
+      <c r="O11" s="12">
+        <f t="shared" si="5"/>
+        <v>4554</v>
+      </c>
+      <c r="P11" s="13">
+        <f t="shared" ca="1" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="Q11" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>41</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="8"/>
+        <v>300</v>
+      </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -993,7 +1248,7 @@
       <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="12">
         <f t="array" ref="I12">IF(E12:E40="jornalero",F12:F40*T$1,G12:G40*T$2)</f>
         <v>6500</v>
       </c>
@@ -1001,7 +1256,38 @@
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="Q12" s="10"/>
+      <c r="K12" s="12">
+        <f t="shared" si="1"/>
+        <v>7475</v>
+      </c>
+      <c r="L12" s="8">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="M12" s="8">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="N12" s="12">
+        <f t="shared" si="4"/>
+        <v>897</v>
+      </c>
+      <c r="O12" s="12">
+        <f t="shared" si="5"/>
+        <v>6578</v>
+      </c>
+      <c r="P12" s="13">
+        <f t="shared" ca="1" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="Q12" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -1025,15 +1311,46 @@
       <c r="H13" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="12">
         <f t="array" ref="I13">IF(E13:E41="jornalero",F13:F41*T$1,G13:G41*T$2)</f>
         <v>5500</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="10"/>
+        <v>0.05</v>
+      </c>
+      <c r="K13" s="12">
+        <f t="shared" si="1"/>
+        <v>5775</v>
+      </c>
+      <c r="L13" s="8">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="M13" s="8">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="N13" s="12">
+        <f t="shared" si="4"/>
+        <v>693</v>
+      </c>
+      <c r="O13" s="12">
+        <f t="shared" si="5"/>
+        <v>5082</v>
+      </c>
+      <c r="P13" s="13">
+        <f t="shared" ca="1" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="Q13" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -1057,7 +1374,7 @@
       <c r="H14" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="12">
         <f t="array" ref="I14">IF(E14:E42="jornalero",F14:F42*T$1,G14:G42*T$2)</f>
         <v>4200</v>
       </c>
@@ -1065,7 +1382,38 @@
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="Q14" s="10"/>
+      <c r="K14" s="12">
+        <f t="shared" si="1"/>
+        <v>4830</v>
+      </c>
+      <c r="L14" s="8">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="M14" s="8">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="N14" s="12">
+        <f t="shared" si="4"/>
+        <v>579.6</v>
+      </c>
+      <c r="O14" s="12">
+        <f t="shared" si="5"/>
+        <v>4250.3999999999996</v>
+      </c>
+      <c r="P14" s="13">
+        <f t="shared" ca="1" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="Q14" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>43</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="8"/>
+        <v>300</v>
+      </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -1089,7 +1437,7 @@
       <c r="H15" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="12">
         <f t="array" ref="I15">IF(E15:E43="jornalero",F15:F43*T$1,G15:G43*T$2)</f>
         <v>5500</v>
       </c>
@@ -1097,7 +1445,38 @@
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="Q15" s="10"/>
+      <c r="K15" s="12">
+        <f t="shared" si="1"/>
+        <v>6325</v>
+      </c>
+      <c r="L15" s="8">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="M15" s="8">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="N15" s="12">
+        <f t="shared" si="4"/>
+        <v>759</v>
+      </c>
+      <c r="O15" s="12">
+        <f t="shared" si="5"/>
+        <v>5566</v>
+      </c>
+      <c r="P15" s="13">
+        <f t="shared" ca="1" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="Q15" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>57</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -1121,7 +1500,7 @@
       <c r="H16" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="12">
         <f t="array" ref="I16">IF(E16:E44="jornalero",F16:F44*T$1,G16:G44*T$2)</f>
         <v>4000</v>
       </c>
@@ -1129,9 +1508,40 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="10"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K16" s="12">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="L16" s="8">
+        <f t="shared" si="2"/>
+        <v>0.13</v>
+      </c>
+      <c r="M16" s="8">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="N16" s="12">
+        <f t="shared" si="4"/>
+        <v>640</v>
+      </c>
+      <c r="O16" s="12">
+        <f t="shared" si="5"/>
+        <v>3360</v>
+      </c>
+      <c r="P16" s="13">
+        <f t="shared" ca="1" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="Q16" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="8"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>52</v>
       </c>
@@ -1153,17 +1563,48 @@
       <c r="H17" t="s">
         <v>47</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="12">
         <f t="array" ref="I17">IF(E17:E45="jornalero",F17:F45*T$1,G17:G45*T$2)</f>
         <v>46250</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="K17" s="12">
+        <f t="shared" si="1"/>
+        <v>48562.5</v>
+      </c>
+      <c r="L17" s="8">
+        <f t="shared" si="2"/>
+        <v>0.09</v>
+      </c>
+      <c r="M17" s="8">
+        <f t="shared" si="3"/>
+        <v>0.09</v>
+      </c>
+      <c r="N17" s="12">
+        <f t="shared" si="4"/>
+        <v>8741.25</v>
+      </c>
+      <c r="O17" s="12">
+        <f t="shared" si="5"/>
+        <v>39821.25</v>
+      </c>
+      <c r="P17" s="13">
+        <f t="shared" ca="1" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="Q17" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="10"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>57</v>
       </c>
@@ -1185,7 +1626,7 @@
       <c r="H18" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="12">
         <f t="array" ref="I18">IF(E18:E46="jornalero",F18:F46*T$1,G18:G46*T$2)</f>
         <v>11250</v>
       </c>
@@ -1193,9 +1634,40 @@
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="Q18" s="10"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K18" s="12">
+        <f t="shared" si="1"/>
+        <v>12937.5</v>
+      </c>
+      <c r="L18" s="8">
+        <f t="shared" si="2"/>
+        <v>0.09</v>
+      </c>
+      <c r="M18" s="8">
+        <f t="shared" si="3"/>
+        <v>0.09</v>
+      </c>
+      <c r="N18" s="12">
+        <f t="shared" si="4"/>
+        <v>2328.75</v>
+      </c>
+      <c r="O18" s="12">
+        <f t="shared" si="5"/>
+        <v>10608.75</v>
+      </c>
+      <c r="P18" s="13">
+        <f t="shared" ca="1" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="Q18" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>59</v>
       </c>
@@ -1217,17 +1689,48 @@
       <c r="H19" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="12">
         <f t="array" ref="I19">IF(E19:E47="jornalero",F19:F47*T$1,G19:G47*T$2)</f>
         <v>6500</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="10"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0.05</v>
+      </c>
+      <c r="K19" s="12">
+        <f t="shared" si="1"/>
+        <v>6825</v>
+      </c>
+      <c r="L19" s="8">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="M19" s="8">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="N19" s="12">
+        <f t="shared" si="4"/>
+        <v>819</v>
+      </c>
+      <c r="O19" s="12">
+        <f t="shared" si="5"/>
+        <v>6006</v>
+      </c>
+      <c r="P19" s="13">
+        <f t="shared" ca="1" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="Q19" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>61</v>
       </c>
@@ -1249,7 +1752,7 @@
       <c r="H20" t="s">
         <v>47</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="12">
         <f t="array" ref="I20">IF(E20:E48="jornalero",F20:F48*T$1,G20:G48*T$2)</f>
         <v>3750</v>
       </c>
@@ -1257,9 +1760,40 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="10"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K20" s="12">
+        <f t="shared" si="1"/>
+        <v>3750</v>
+      </c>
+      <c r="L20" s="8">
+        <f t="shared" si="2"/>
+        <v>0.13</v>
+      </c>
+      <c r="M20" s="8">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="N20" s="12">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
+      <c r="O20" s="12">
+        <f t="shared" si="5"/>
+        <v>3150</v>
+      </c>
+      <c r="P20" s="13">
+        <f t="shared" ca="1" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="Q20" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>42</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="8"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>69</v>
       </c>
@@ -1281,7 +1815,7 @@
       <c r="H21" t="s">
         <v>45</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="12">
         <f t="array" ref="I21">IF(E21:E49="jornalero",F21:F49*T$1,G21:G49*T$2)</f>
         <v>5000</v>
       </c>
@@ -1289,9 +1823,40 @@
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="Q21" s="10"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K21" s="12">
+        <f t="shared" si="1"/>
+        <v>5750</v>
+      </c>
+      <c r="L21" s="8">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="M21" s="8">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="N21" s="12">
+        <f t="shared" si="4"/>
+        <v>690</v>
+      </c>
+      <c r="O21" s="12">
+        <f t="shared" si="5"/>
+        <v>5060</v>
+      </c>
+      <c r="P21" s="13">
+        <f t="shared" ca="1" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="Q21" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>51</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>72</v>
       </c>
@@ -1313,7 +1878,7 @@
       <c r="H22" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="12">
         <f t="array" ref="I22">IF(E22:E50="jornalero",F22:F50*T$1,G22:G50*T$2)</f>
         <v>3000</v>
       </c>
@@ -1321,9 +1886,40 @@
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="Q22" s="10"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K22" s="12">
+        <f t="shared" si="1"/>
+        <v>3450</v>
+      </c>
+      <c r="L22" s="8">
+        <f t="shared" si="2"/>
+        <v>0.13</v>
+      </c>
+      <c r="M22" s="8">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="N22" s="12">
+        <f t="shared" si="4"/>
+        <v>552</v>
+      </c>
+      <c r="O22" s="12">
+        <f t="shared" si="5"/>
+        <v>2898</v>
+      </c>
+      <c r="P22" s="13">
+        <f t="shared" ca="1" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="Q22" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>46</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="8"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>78</v>
       </c>
@@ -1345,17 +1941,48 @@
       <c r="H23" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="12">
         <f t="array" ref="I23">IF(E23:E51="jornalero",F23:F51*T$1,G23:G51*T$2)</f>
         <v>5500</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="10"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0.05</v>
+      </c>
+      <c r="K23" s="12">
+        <f t="shared" si="1"/>
+        <v>5775</v>
+      </c>
+      <c r="L23" s="8">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="M23" s="8">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="N23" s="12">
+        <f t="shared" si="4"/>
+        <v>693</v>
+      </c>
+      <c r="O23" s="12">
+        <f t="shared" si="5"/>
+        <v>5082</v>
+      </c>
+      <c r="P23" s="13">
+        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="Q23" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>39</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>81</v>
       </c>
@@ -1377,7 +2004,7 @@
       <c r="H24" t="s">
         <v>45</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="12">
         <f t="array" ref="I24">IF(E24:E52="jornalero",F24:F52*T$1,G24:G52*T$2)</f>
         <v>5500</v>
       </c>
@@ -1385,9 +2012,40 @@
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="Q24" s="10"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K24" s="12">
+        <f t="shared" si="1"/>
+        <v>6325</v>
+      </c>
+      <c r="L24" s="8">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="M24" s="8">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="N24" s="12">
+        <f t="shared" si="4"/>
+        <v>759</v>
+      </c>
+      <c r="O24" s="12">
+        <f t="shared" si="5"/>
+        <v>5566</v>
+      </c>
+      <c r="P24" s="13">
+        <f t="shared" ca="1" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="Q24" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>51</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>84</v>
       </c>
@@ -1409,7 +2067,7 @@
       <c r="H25" t="s">
         <v>45</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="12">
         <f t="array" ref="I25">IF(E25:E53="jornalero",F25:F53*T$1,G25:G53*T$2)</f>
         <v>4400</v>
       </c>
@@ -1417,9 +2075,40 @@
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="Q25" s="10"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K25" s="12">
+        <f t="shared" si="1"/>
+        <v>5060</v>
+      </c>
+      <c r="L25" s="8">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="M25" s="8">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="N25" s="12">
+        <f t="shared" si="4"/>
+        <v>607.19999999999993</v>
+      </c>
+      <c r="O25" s="12">
+        <f t="shared" si="5"/>
+        <v>4452.8</v>
+      </c>
+      <c r="P25" s="13">
+        <f t="shared" ca="1" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="Q25" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>59</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="8"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>85</v>
       </c>
@@ -1441,7 +2130,7 @@
       <c r="H26" t="s">
         <v>45</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="12">
         <f t="array" ref="I26">IF(E26:E54="jornalero",F26:F54*T$1,G26:G54*T$2)</f>
         <v>4200</v>
       </c>
@@ -1449,9 +2138,40 @@
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="Q26" s="10"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K26" s="12">
+        <f t="shared" si="1"/>
+        <v>4830</v>
+      </c>
+      <c r="L26" s="8">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="M26" s="8">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="N26" s="12">
+        <f t="shared" si="4"/>
+        <v>579.6</v>
+      </c>
+      <c r="O26" s="12">
+        <f t="shared" si="5"/>
+        <v>4250.3999999999996</v>
+      </c>
+      <c r="P26" s="13">
+        <f t="shared" ca="1" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="Q26" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>41</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="8"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>86</v>
       </c>
@@ -1473,7 +2193,7 @@
       <c r="H27" t="s">
         <v>25</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="12">
         <f t="array" ref="I27">IF(E27:E55="jornalero",F27:F55*T$1,G27:G55*T$2)</f>
         <v>4750</v>
       </c>
@@ -1481,9 +2201,40 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="10"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K27" s="12">
+        <f t="shared" si="1"/>
+        <v>4750</v>
+      </c>
+      <c r="L27" s="8">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="M27" s="8">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="N27" s="12">
+        <f t="shared" si="4"/>
+        <v>570</v>
+      </c>
+      <c r="O27" s="12">
+        <f t="shared" si="5"/>
+        <v>4180</v>
+      </c>
+      <c r="P27" s="13">
+        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="Q27" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>37</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="8"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>95</v>
       </c>
@@ -1505,7 +2256,7 @@
       <c r="H28" t="s">
         <v>45</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I28" s="12">
         <f t="array" ref="I28">IF(E28:E56="jornalero",F28:F56*T$1,G28:G56*T$2)</f>
         <v>2500</v>
       </c>
@@ -1513,9 +2264,40 @@
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="Q28" s="10"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K28" s="12">
+        <f t="shared" si="1"/>
+        <v>2875</v>
+      </c>
+      <c r="L28" s="8">
+        <f t="shared" si="2"/>
+        <v>0.13</v>
+      </c>
+      <c r="M28" s="8">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="N28" s="12">
+        <f t="shared" si="4"/>
+        <v>460</v>
+      </c>
+      <c r="O28" s="12">
+        <f t="shared" si="5"/>
+        <v>2415</v>
+      </c>
+      <c r="P28" s="13">
+        <f t="shared" ca="1" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="Q28" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>43</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="8"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>98</v>
       </c>
@@ -1537,7 +2319,7 @@
       <c r="H29" t="s">
         <v>46</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I29" s="12">
         <f t="array" ref="I29">IF(E29:E57="jornalero",F29:F57*T$1,G29:G57*T$2)</f>
         <v>5250</v>
       </c>
@@ -1545,9 +2327,40 @@
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="Q29" s="10"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K29" s="12">
+        <f t="shared" si="1"/>
+        <v>6037.5</v>
+      </c>
+      <c r="L29" s="8">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="M29" s="8">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="N29" s="12">
+        <f t="shared" si="4"/>
+        <v>724.5</v>
+      </c>
+      <c r="O29" s="12">
+        <f t="shared" si="5"/>
+        <v>5313</v>
+      </c>
+      <c r="P29" s="13">
+        <f t="shared" ca="1" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="Q29" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>105</v>
       </c>
@@ -1569,7 +2382,7 @@
       <c r="H30" t="s">
         <v>45</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I30" s="12">
         <f t="array" ref="I30">IF(E30:E58="jornalero",F30:F58*T$1,G30:G58*T$2)</f>
         <v>6625</v>
       </c>
@@ -1577,9 +2390,40 @@
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="Q30" s="10"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K30" s="12">
+        <f t="shared" si="1"/>
+        <v>7618.75</v>
+      </c>
+      <c r="L30" s="8">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="M30" s="8">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="N30" s="12">
+        <f t="shared" si="4"/>
+        <v>914.25</v>
+      </c>
+      <c r="O30" s="12">
+        <f t="shared" si="5"/>
+        <v>6704.5</v>
+      </c>
+      <c r="P30" s="13">
+        <f t="shared" ca="1" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="Q30" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>44</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>113</v>
       </c>
@@ -1601,17 +2445,48 @@
       <c r="H31" t="s">
         <v>25</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I31" s="12">
         <f t="array" ref="I31">IF(E31:E59="jornalero",F31:F59*T$1,G31:G59*T$2)</f>
         <v>5500</v>
       </c>
       <c r="J31" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="10"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0.05</v>
+      </c>
+      <c r="K31" s="12">
+        <f t="shared" si="1"/>
+        <v>5775</v>
+      </c>
+      <c r="L31" s="8">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="M31" s="8">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="N31" s="12">
+        <f t="shared" si="4"/>
+        <v>693</v>
+      </c>
+      <c r="O31" s="12">
+        <f t="shared" si="5"/>
+        <v>5082</v>
+      </c>
+      <c r="P31" s="13">
+        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="Q31" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>38</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>123</v>
       </c>
@@ -1633,7 +2508,7 @@
       <c r="H32" t="s">
         <v>45</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I32" s="12">
         <f t="array" ref="I32">IF(E32:E60="jornalero",F32:F60*T$1,G32:G60*T$2)</f>
         <v>5500</v>
       </c>
@@ -1641,15 +2516,50 @@
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="Q32" s="10"/>
+      <c r="K32" s="12">
+        <f t="shared" si="1"/>
+        <v>6325</v>
+      </c>
+      <c r="L32" s="8">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="M32" s="8">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="N32" s="12">
+        <f t="shared" si="4"/>
+        <v>759</v>
+      </c>
+      <c r="O32" s="12">
+        <f t="shared" si="5"/>
+        <v>5566</v>
+      </c>
+      <c r="P32" s="13">
+        <f t="shared" ca="1" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="Q32" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>74</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="34" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1"/>
     </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C35" s="1"/>
+    </row>
     <row r="38" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="P38" s="12"/>
+      <c r="P38" s="11"/>
     </row>
   </sheetData>
+  <autoFilter ref="A3:AG32"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
